--- a/similarities/split_global/harmonic_similarity_timestamps_32.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_32.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
+          <t>['G:min7', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:03.120000', '0:01:09.420000')]</t>
+          <t>('0:01:07.560000', '0:01:14.100000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:38.700000', '0:01:58.800000')]</t>
+          <t>('0:00:20.730000', '0:00:24.830000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=63.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=67.56</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=98.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=20.73</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_44</t>
+          <t>isophonics_82</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A:min', 'D:min', 'G:min', 'C:maj']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C', 'E:min', 'A:min', 'D:min', 'G']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:02:13.589000', '0:02:21.298000')]</t>
+          <t>('0:01:57.540000', '0:02:01.800000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:45.494263', '0:00:53.934716')]</t>
+          <t>('0:00:03.101913', '0:00:07.754783')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=133.589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-44#t=45.494263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['F', 'C', 'F']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:13.620000', '0:01:21.040000')]</t>
+          <t>('0:00:08.720000', '0:00:10.480000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:31.740000', '0:00:33.880000')]</t>
+          <t>('0:00:00.440395', '0:00:05.558652')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=73.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=8.72</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=31.74']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=0.440395</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#', 'A:min/E']]</t>
+          <t>['D', 'D:min', 'A']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E:min']]</t>
+          <t>['F', 'F:min', 'C']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:09.360000', '0:01:13.860000')]</t>
+          <t>('0:00:22.703877', '0:00:30.830861')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:29.983333', '0:00:35.300702')]</t>
+          <t>('0:00:38.588000', '0:00:43.202000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=22.703877</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=29.983333']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=38.588</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:45.590000')]</t>
+          <t>('0:00:10.130000', '0:00:14.450000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:00.260000', '0:00:07.340000')]</t>
+          <t>('0:00:08.600000', '0:00:11.260000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=10.13</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=0.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=8.6</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['F#:7/A#', 'B:7/A', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:22.125076', '0:00:36.625937')]</t>
+          <t>('0:00:52.580000', '0:00:58.920000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+          <t>('0:00:37.633000', '0:00:41.753000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=52.58</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=37.633</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:05')]</t>
+          <t>('0:00:19.060000', '0:00:30.080000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:03.320000', '0:00:08.680000')]</t>
+          <t>('0:00:53.500000', '0:01:01.320000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=19.06</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=3.32']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=53.5</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:16.240000', '0:00:24.340000')]</t>
+          <t>('0:00:06.300000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:22.370000', '0:00:47.630000')]</t>
+          <t>('0:00:15.060000', '0:00:23.160000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=6.3</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=15.06</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab', 'Db', 'Ab']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:10.540000', '0:00:13.980000')]</t>
+          <t>('0:01:08.040000', '0:01:19')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:00.436303', '0:01:14.066417')]</t>
+          <t>('0:01:08.640000', '0:01:17.380000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=10.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=60.436303']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_165</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['D:min', 'A:(3,5,b7,b9)', 'D:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:07.400000', '0:00:16.480000')]</t>
+          <t>('0:00:56.760000', '0:01:02.320000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:00.600000', '0:00:08.740000')]</t>
+          <t>('0:01:43', '0:02:02.840000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=56.76</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=0.6']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=103.0</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:07.590000', '0:00:14.680000')]</t>
+          <t>('0:00:18.420000', '0:00:24.340000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:01.460000', '0:00:09.840000')]</t>
+          <t>('0:00:37.360000', '0:00:44.660000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=18.42</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F:min', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:00:00.600000', '0:00:08.740000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:03.129454', '0:00:05.172811')]</t>
+          <t>('0:00:01', '0:00:07.820000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=0.6</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=1.0</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>isophonics_82</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['A', 'D', 'A/3']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:15.124263', '0:00:20.058503')]</t>
+          <t>('0:00:03.101913', '0:00:07.754783')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:58.440000', '0:02:01.680000')]</t>
+          <t>('0:00:13.527000', '0:00:17.058000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=13.527</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_135</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:04.820000', '0:00:22.080000')]</t>
+          <t>('0:00:42.900000', '0:00:45.160000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:02:20.860000', '0:02:24.100000')]</t>
+          <t>('0:00:00.740000', '0:00:21.500000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-135#t=4.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=42.9</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=140.86']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_71</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Db/3', 'Db:min/b3', 'Ab/b5']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:min', 'C:maj']]</t>
+          <t>['C:min', 'G:7/D', 'C:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:04.300000', '0:00:05.850000')]</t>
+          <t>('0:00:02.600000', '0:00:04.500000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:46.097000', '0:00:54.196000')]</t>
+          <t>('0:00:00.360000', '0:00:07.140000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=4.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=46.097']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=0.36</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
